--- a/Soluciones Tareas /Datoscolor.xlsx
+++ b/Soluciones Tareas /Datoscolor.xlsx
@@ -8,14 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cinthyaandrade/Desktop/class_ITAM_estadistica1/Soluciones Tareas /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BA9EFF7-E8D5-4447-9B77-7034F448E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B54B707-274F-FA49-AD8C-1EDE9C0D4188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{8A59D62F-F29C-CF47-857A-75C84D3C11E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$B$1:$B$21</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Hoja1!$A$1:$A$21</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Hoja1!$B$1:$B$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="10">
   <si>
     <t>café</t>
   </si>
@@ -54,11 +74,26 @@
   <si>
     <t>azul</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tabla </t>
+  </si>
+  <si>
+    <t>Variable Cuali</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -88,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +141,1740 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Gráfico de Puntos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$27:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$E$27:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BEA-754D-B830-F3718E50339E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="384410704"/>
+        <c:axId val="384412352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="384410704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384412352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="384412352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="384410704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>HISTOGRAMA</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>HISTOGRAMA</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{F35082E6-6990-1449-A9FF-92532841C13A}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{D81D0A1D-4E14-E94C-8BF2-F84345B92F78}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAC7E12B-DDC1-C403-CF35-48F8840803AE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6292850" y="241300"/>
+              <a:ext cx="5924550" cy="3187700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-MX" sz="1100"/>
+                <a:t>Este gráfico no está disponible en tu versión de Excel.
+Si editas esta forma o guardas el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AACE3A-5308-E87A-DD0A-7F3E448B05FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,120 +2174,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735D4BD7-F648-C04A-9E04-78CE89C8379C}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="308" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="H56" t="str">
+        <f>+E53</f>
+        <v>amarillo</v>
+      </c>
+      <c r="I56">
+        <f>+COUNTA(E53:E54)</f>
+        <v>2</v>
+      </c>
+      <c r="J56" s="1">
+        <f>+I56/$I$62</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="K56">
+        <f>+I56</f>
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f>+K56/$I$62</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" t="str">
+        <f>+E55</f>
+        <v>anaranjado</v>
+      </c>
+      <c r="I57">
+        <f>+COUNTA(E55:E57)</f>
+        <v>3</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" ref="J57:J61" si="0">+I57/$I$62</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K57">
+        <f>+I57+K56</f>
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <f t="shared" ref="L57:L61" si="1">+K57/$I$62</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" t="str">
+        <f>+E58</f>
+        <v>azul</v>
+      </c>
+      <c r="I58">
+        <f>+COUNTA(E58:E62)</f>
+        <v>5</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:K61" si="2">+I58+K57</f>
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" t="str">
+        <f>+E63</f>
+        <v>café</v>
+      </c>
+      <c r="I59">
+        <f>+COUNTA(E63:E68)</f>
+        <v>6</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="str">
+        <f>+E69</f>
+        <v>rojo</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I57:I61" si="3">+COUNTA(E57:E58)</f>
+        <v>2</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H61" t="str">
+        <f>+E72</f>
+        <v>verde</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <f>SUM(I56:I61)</f>
+        <v>21</v>
+      </c>
+      <c r="J62">
+        <f>SUM(J56:J61)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:C47">
+    <sortCondition ref="C27:C47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>